--- a/medicine/Psychotrope/Bai_hao_yinzhen/Bai_hao_yinzhen.xlsx
+++ b/medicine/Psychotrope/Bai_hao_yinzhen/Bai_hao_yinzhen.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Bai hao yinzhen (chinois simplifié : 白毫银针 ; chinois traditionnel : 白毫銀針 ; pinyin : bái háo yínzhēn ; litt. « Aiguilles d'argent velue blanche ») est un thé blanc rare et cher, produit dans la province du Fujian, au sud-est de la Chine. Il fait partie des grands thés les plus célèbres de Chine. Le Bai mudan est l'autre grande variété de thé blanc, également produite au Fujian.
 </t>
@@ -511,7 +523,9 @@
           <t>Fabrication</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Bai hao yinzhen est principalement cultivé dans la ville-district de Fuding, dans la ville-préfecture de Ningde, ainsi que les comtés de Zhenghe (dans la ville-préfecture de Nanping) et Shuijie, près de la rivière Min (ou Min jiang) et du Mont Taimu.
 En raison de son procédé de préparation — difficile à maîtriser — et de sa faible production, le Bai hao yinzhen est probablement le meilleur thé blanc de Chine et même du monde[réf. nécessaire] (et aussi l'un des plus chers).
@@ -548,7 +562,9 @@
           <t>Santé</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La liqueur obtenue après infusion est très pâle avec des notes tirant sur le miel, et ne possède aucune astringence, amertume ou goût herbeux, même en cas d'infusion très longue.
 Les thés blancs de type Bai hao yinzhen sont les thés les plus riches en anti-oxydants, car les bourgeons duveteux sont très riches en huiles aromatiques.
@@ -581,7 +597,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Bai hao yinzhen a été produit pour la première fois sous la dynastie chinoise des Song (960 à 1279 EC). La légende attribue à l'empereur Hui Zong (1101-1125) la découverte du goût plus doux et plus rafraîchissant de ces jeunes bourgeons duveteux ressemblants aux aiguilles en argent utilisées en acupuncture. À cette époque, ce thé était réservé à l'Empereur et à sa cour.
 </t>
